--- a/questionnaires/xlsformwithgeocodesexample.xlsx
+++ b/questionnaires/xlsformwithgeocodesexample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.olander\Dropbox\standardizedRBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D33B2C6-FEBE-4621-B236-C781513F2802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2C98E-7C97-4D5F-AE21-F823017A8F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1710" windowWidth="25440" windowHeight="15390" xr2:uid="{79FAD012-C182-4216-A774-A38ED6B2ABC5}"/>
+    <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{79FAD012-C182-4216-A774-A38ED6B2ABC5}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="2" r:id="rId1"/>
@@ -967,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E752B-EA73-4797-89B1-A8634DAF22D2}">
   <dimension ref="A1:R755"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -9363,10 +9363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5CCFB-6F43-4149-80E8-EEB9A0A8403E}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9428,28 +9428,20 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>126</v>
@@ -9460,10 +9452,10 @@
         <v>153</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>126</v>
@@ -9474,10 +9466,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>126</v>
@@ -9488,10 +9480,10 @@
         <v>153</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>126</v>
@@ -9502,10 +9494,10 @@
         <v>153</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>126</v>
@@ -9516,10 +9508,10 @@
         <v>153</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>126</v>
@@ -9530,10 +9522,10 @@
         <v>153</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>126</v>
@@ -9544,10 +9536,10 @@
         <v>153</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>126</v>
@@ -9558,10 +9550,10 @@
         <v>153</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>126</v>
@@ -9572,39 +9564,39 @@
         <v>153</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>126</v>
@@ -9615,10 +9607,10 @@
         <v>153</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>126</v>
@@ -9629,10 +9621,10 @@
         <v>153</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>126</v>
@@ -9643,10 +9635,10 @@
         <v>153</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>126</v>
@@ -9657,10 +9649,10 @@
         <v>153</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>126</v>
@@ -9671,10 +9663,10 @@
         <v>153</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>126</v>
@@ -9685,10 +9677,10 @@
         <v>153</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>126</v>
@@ -9699,10 +9691,10 @@
         <v>153</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>126</v>
@@ -9713,10 +9705,10 @@
         <v>153</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>126</v>
@@ -9727,10 +9719,10 @@
         <v>153</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>126</v>
@@ -9741,10 +9733,10 @@
         <v>153</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>126</v>
@@ -9755,13 +9747,13 @@
         <v>153</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9769,10 +9761,10 @@
         <v>153</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>128</v>
@@ -9783,10 +9775,10 @@
         <v>153</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>128</v>
@@ -9797,10 +9789,10 @@
         <v>153</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>128</v>
@@ -9811,10 +9803,10 @@
         <v>153</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>128</v>
@@ -9825,10 +9817,10 @@
         <v>153</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>128</v>
@@ -9839,10 +9831,10 @@
         <v>153</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>128</v>
@@ -9853,10 +9845,10 @@
         <v>153</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>128</v>
@@ -9867,10 +9859,10 @@
         <v>153</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>128</v>
@@ -9881,10 +9873,10 @@
         <v>153</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>128</v>
@@ -9895,10 +9887,10 @@
         <v>153</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>113</v>
+        <v>44</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>128</v>
@@ -9909,10 +9901,10 @@
         <v>153</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>128</v>
@@ -9923,10 +9915,10 @@
         <v>153</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>128</v>
@@ -9937,10 +9929,10 @@
         <v>153</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>128</v>
@@ -9951,10 +9943,10 @@
         <v>153</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>128</v>
@@ -9965,10 +9957,10 @@
         <v>153</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>128</v>
@@ -9979,10 +9971,10 @@
         <v>153</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>128</v>
@@ -9993,13 +9985,13 @@
         <v>153</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10007,10 +9999,10 @@
         <v>153</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>130</v>
@@ -10021,10 +10013,10 @@
         <v>153</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>130</v>
@@ -10035,10 +10027,10 @@
         <v>153</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>130</v>
@@ -10049,10 +10041,10 @@
         <v>153</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>130</v>
@@ -10063,10 +10055,10 @@
         <v>153</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>130</v>
@@ -10077,10 +10069,10 @@
         <v>153</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>130</v>
@@ -10091,10 +10083,10 @@
         <v>153</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>130</v>
@@ -10105,10 +10097,10 @@
         <v>153</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>130</v>
@@ -10119,10 +10111,10 @@
         <v>153</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>130</v>
@@ -10133,10 +10125,10 @@
         <v>153</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>130</v>
@@ -10147,10 +10139,10 @@
         <v>153</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>130</v>
@@ -10161,10 +10153,10 @@
         <v>153</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>130</v>
@@ -10175,10 +10167,10 @@
         <v>153</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>130</v>
@@ -10189,10 +10181,10 @@
         <v>153</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>130</v>
@@ -10203,10 +10195,10 @@
         <v>153</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>130</v>
@@ -10217,10 +10209,10 @@
         <v>153</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>130</v>
@@ -10231,10 +10223,10 @@
         <v>153</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>130</v>
@@ -10245,10 +10237,10 @@
         <v>153</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>130</v>
@@ -10259,10 +10251,10 @@
         <v>153</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>130</v>
@@ -10273,12 +10265,26 @@
         <v>153</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10291,8 +10297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE07376-4AF0-425E-9CCD-DAED22FC5E3F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
